--- a/每日计划表.xlsx
+++ b/每日计划表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +816,10 @@
   <si>
     <t>《c++沉思录》
 《算法基础》171217-171231 每天平均20页，看完这本书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3181,7 +3185,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3326,6 +3330,9 @@
         <f t="shared" si="0"/>
         <v>星期六</v>
       </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -3334,6 +3341,9 @@
       <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>星期日</v>
+      </c>
+      <c r="E15" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">

--- a/每日计划表.xlsx
+++ b/每日计划表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,10 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3185,7 +3189,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3354,6 +3358,9 @@
         <f t="shared" si="0"/>
         <v>星期一</v>
       </c>
+      <c r="E16" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
